--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,22 +5089,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.98</v>
+        <v>2.74</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.95</v>
+        <v>2.89</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,15 +5112,15 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.73</v>
+        <v>3.54</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,15 +5128,15 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.45</v>
+        <v>2.59</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.83</v>
+        <v>2.48</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-viborg/0fi0ouXm/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-fc-copenhagen/nmBPisfK/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,22 +5181,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.74</v>
+        <v>1.98</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.89</v>
+        <v>1.95</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,15 +5204,15 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.52</v>
+        <v>3.84</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5220,15 +5220,15 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.59</v>
+        <v>3.45</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.48</v>
+        <v>3.83</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-fc-copenhagen/nmBPisfK/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-viborg/0fi0ouXm/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,98 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/odense-lyngby/EcHZavns/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45205.79166666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-lyngby/2uPifzGI/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6161,6 +6161,282 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Odense</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-odense/rw9jddo6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Hvidovre IF</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>02/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>02/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>02/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-hvidovre-if/MT7feG0C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Brondby</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-viborg/zD5rbIGg/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,22 +5089,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.74</v>
+        <v>1.98</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.89</v>
+        <v>1.95</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,15 +5112,15 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.52</v>
+        <v>3.84</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,15 +5128,15 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.59</v>
+        <v>3.45</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.48</v>
+        <v>3.83</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-fc-copenhagen/nmBPisfK/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-viborg/0fi0ouXm/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,22 +5181,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1.98</v>
+        <v>2.74</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.95</v>
+        <v>2.89</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,15 +5204,15 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.73</v>
+        <v>3.54</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5220,15 +5220,15 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.45</v>
+        <v>2.59</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.83</v>
+        <v>2.48</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-viborg/0fi0ouXm/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-fc-copenhagen/nmBPisfK/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,190 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/brondby-viborg/zD5rbIGg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Randers FC</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/midtjylland-randers-fc/lG9ncxWa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45207.83333333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Aarhus</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:54</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:54</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/aarhus-fc-copenhagen/hlGwab1m/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,22 +5089,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.98</v>
+        <v>2.74</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.95</v>
+        <v>2.89</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,15 +5112,15 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.73</v>
+        <v>3.54</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,15 +5128,15 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.45</v>
+        <v>2.59</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.83</v>
+        <v>2.48</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-viborg/0fi0ouXm/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-fc-copenhagen/nmBPisfK/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,22 +5181,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.74</v>
+        <v>1.98</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.89</v>
+        <v>1.95</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,15 +5204,15 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.52</v>
+        <v>3.84</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5220,15 +5220,15 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.59</v>
+        <v>3.45</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.48</v>
+        <v>3.83</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-fc-copenhagen/nmBPisfK/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-viborg/0fi0ouXm/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,98 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/aarhus-fc-copenhagen/hlGwab1m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45219.79166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Hvidovre IF</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/hvidovre-if-silkeborg/fZBwIw8P/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6713,6 +6713,98 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45220.70833333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:37</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/fc-copenhagen-vejle/tWNegfVO/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.82</v>
+        <v>3.9</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>24/09/2023 15:12</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3.32</v>
+        <v>5.5</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:58</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.56</v>
+        <v>3.95</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>24/09/2023 15:12</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.42</v>
+        <v>4.07</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:58</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>24/09/2023 15:12</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.27</v>
+        <v>1.64</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:58</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-silkeborg/UZrHscWC/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-nordsjaelland/M5P74KwQ/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.9</v>
+        <v>2.82</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 15:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>5.5</v>
+        <v>3.32</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 13:58</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.95</v>
+        <v>3.56</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 15:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.07</v>
+        <v>3.42</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 13:58</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 15:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.64</v>
+        <v>2.27</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 13:58</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-nordsjaelland/M5P74KwQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-silkeborg/UZrHscWC/</t>
         </is>
       </c>
     </row>
@@ -6802,6 +6802,374 @@
       <c r="V69" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/fc-copenhagen-vejle/tWNegfVO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Aarhus</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/lyngby-aarhus/Wf35DcGt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45221.66666666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/viborg-nordsjaelland/MqdIAe0a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45221.75</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Randers FC</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Brondby</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-brondby/EJhACHVn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45222.79166666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Odense</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/odense-midtjylland/hAiEByog/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.69</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>08/08/2023 14:42</t>
+          <t>06/08/2023 18:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.18</v>
+        <v>3.79</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>13/08/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>06/08/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>13/08/2023 13:59</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>13/08/2023 13:59</t>
-        </is>
-      </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>08/08/2023 14:42</t>
+          <t>06/08/2023 18:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 13:59</t>
+          <t>13/08/2023 13:58</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-midtjylland/nysURgzb/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-nordsjaelland/pMaXQDk4/</t>
         </is>
       </c>
     </row>
@@ -2413,46 +2413,46 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.69</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.79</v>
+        <v>3.18</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 13:55</t>
+          <t>13/08/2023 13:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.82</v>
+        <v>3.57</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.86</v>
+        <v>3.46</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,24 +2460,24 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 13:58</t>
+          <t>13/08/2023 13:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-nordsjaelland/pMaXQDk4/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-midtjylland/nysURgzb/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.49</v>
+        <v>3.55</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>28/08/2023 06:12</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.43</v>
+        <v>4.6</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>03/09/2023 13:17</t>
+          <t>03/09/2023 13:51</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.43</v>
+        <v>3.61</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>28/08/2023 06:12</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.99</v>
+        <v>3.9</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:51</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.82</v>
+        <v>2.06</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>28/08/2023 06:12</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>7.77</v>
+        <v>1.78</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:51</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-hvidovre-if/Y1xqu4AE/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/lyngby-nordsjaelland/MRYvtpe8/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.55</v>
+        <v>1.49</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>28/08/2023 06:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4.6</v>
+        <v>1.43</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>03/09/2023 13:51</t>
+          <t>03/09/2023 13:17</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.61</v>
+        <v>4.43</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>28/08/2023 06:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.9</v>
+        <v>4.99</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>03/09/2023 13:51</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.06</v>
+        <v>5.82</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>28/08/2023 06:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.78</v>
+        <v>7.77</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>03/09/2023 13:51</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/lyngby-nordsjaelland/MRYvtpe8/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-hvidovre-if/Y1xqu4AE/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>3.9</v>
+        <v>2.82</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 15:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5.5</v>
+        <v>3.32</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/10/2023 13:58</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.95</v>
+        <v>3.56</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 15:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.07</v>
+        <v>3.42</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>01/10/2023 13:58</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>25/09/2023 18:12</t>
+          <t>24/09/2023 15:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.64</v>
+        <v>2.27</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>01/10/2023 13:58</t>
+          <t>01/10/2023 13:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-nordsjaelland/M5P74KwQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-silkeborg/UZrHscWC/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.82</v>
+        <v>3.9</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>24/09/2023 15:12</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.32</v>
+        <v>5.5</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:58</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.56</v>
+        <v>3.95</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>24/09/2023 15:12</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.42</v>
+        <v>4.07</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:58</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>24/09/2023 15:12</t>
+          <t>25/09/2023 18:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.27</v>
+        <v>1.64</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>01/10/2023 13:57</t>
+          <t>01/10/2023 13:58</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-silkeborg/UZrHscWC/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-nordsjaelland/M5P74KwQ/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,558 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/odense-midtjylland/hAiEByog/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:49</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/midtjylland-lyngby/CWP1koUj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Hvidovre IF</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/fc-copenhagen-hvidovre-if/YuRcjREp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-viborg/tp3U7gpI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45228.66666666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Odense</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-odense/ll9pEU6i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45228.75</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Brondby</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>23/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>23/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>23/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-nordsjaelland/rapR8ZUB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45229.79166666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Aarhus</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Randers FC</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>23/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>23/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>23/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/aarhus-randers-fc/0zeM9FF5/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7725,6 +7725,98 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45234.6875</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Odense</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:20</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:20</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:20</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/lyngby-odense/z5BdBSjA/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,46 +2321,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.69</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.79</v>
+        <v>3.18</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 13:55</t>
+          <t>13/08/2023 13:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.82</v>
+        <v>3.57</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.86</v>
+        <v>3.46</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,24 +2368,24 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 13:58</t>
+          <t>13/08/2023 13:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-nordsjaelland/pMaXQDk4/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-midtjylland/nysURgzb/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.69</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>08/08/2023 14:42</t>
+          <t>06/08/2023 18:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.18</v>
+        <v>3.79</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>13/08/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>06/08/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>13/08/2023 13:59</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>13/08/2023 13:59</t>
-        </is>
-      </c>
       <c r="R22" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>08/08/2023 14:42</t>
+          <t>06/08/2023 18:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 13:59</t>
+          <t>13/08/2023 13:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-midtjylland/nysURgzb/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-nordsjaelland/pMaXQDk4/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,22 +5089,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.74</v>
+        <v>1.98</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.89</v>
+        <v>1.95</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,15 +5112,15 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.52</v>
+        <v>3.84</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,15 +5128,15 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.59</v>
+        <v>3.45</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.48</v>
+        <v>3.83</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-fc-copenhagen/nmBPisfK/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-viborg/0fi0ouXm/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,22 +5181,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1.98</v>
+        <v>2.74</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.95</v>
+        <v>2.89</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,15 +5204,15 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.73</v>
+        <v>3.54</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5220,15 +5220,15 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.45</v>
+        <v>2.59</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.83</v>
+        <v>2.48</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-viborg/0fi0ouXm/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-fc-copenhagen/nmBPisfK/</t>
         </is>
       </c>
     </row>
@@ -7814,6 +7814,190 @@
       <c r="V80" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/lyngby-odense/z5BdBSjA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>30/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:36</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>30/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>30/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-vejle/Sv8lDlMc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:32</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:09</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:32</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/viborg-silkeborg/4pa98QzT/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>02/10/2023 05:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.32</v>
+        <v>1.86</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>08/10/2023 13:50</t>
+          <t>08/10/2023 13:52</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.97</v>
+        <v>3.82</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>02/10/2023 05:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>5.91</v>
+        <v>3.66</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:52</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.2</v>
+        <v>4.14</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>02/10/2023 05:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>8.98</v>
+        <v>4.44</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:52</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-odense/rw9jddo6/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-hvidovre-if/MT7feG0C/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Odense</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>02/10/2023 05:12</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.86</v>
+        <v>1.32</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 13:52</t>
+          <t>08/10/2023 13:50</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.82</v>
+        <v>4.97</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>02/10/2023 05:12</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.66</v>
+        <v>5.91</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 13:52</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.14</v>
+        <v>6.2</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>02/10/2023 05:12</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.44</v>
+        <v>8.98</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 13:52</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-hvidovre-if/MT7feG0C/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-odense/rw9jddo6/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,190 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/viborg-silkeborg/4pa98QzT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Randers FC</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-fc-copenhagen/dKa596LM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45235.75</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Hvidovre IF</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/hvidovre-if-midtjylland/M17hC8y4/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8185,6 +8185,98 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45236.79166666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Brondby</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Aarhus</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>30/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-aarhus/IT01An6G/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.55</v>
+        <v>1.49</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>28/08/2023 06:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4.6</v>
+        <v>1.43</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>03/09/2023 13:51</t>
+          <t>03/09/2023 13:17</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.61</v>
+        <v>4.43</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>28/08/2023 06:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.9</v>
+        <v>4.99</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>03/09/2023 13:51</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.06</v>
+        <v>5.82</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>27/08/2023 17:12</t>
+          <t>28/08/2023 06:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.78</v>
+        <v>7.77</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>03/09/2023 13:51</t>
+          <t>03/09/2023 13:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/lyngby-nordsjaelland/MRYvtpe8/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-hvidovre-if/Y1xqu4AE/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.49</v>
+        <v>3.55</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>28/08/2023 06:12</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.43</v>
+        <v>4.6</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>03/09/2023 13:17</t>
+          <t>03/09/2023 13:51</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.43</v>
+        <v>3.61</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>28/08/2023 06:12</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.99</v>
+        <v>3.9</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:51</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.82</v>
+        <v>2.06</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>28/08/2023 06:12</t>
+          <t>27/08/2023 17:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>7.77</v>
+        <v>1.78</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>03/09/2023 13:59</t>
+          <t>03/09/2023 13:51</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-hvidovre-if/Y1xqu4AE/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/lyngby-nordsjaelland/MRYvtpe8/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,22 +5089,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.98</v>
+        <v>2.74</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.95</v>
+        <v>2.89</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -5112,15 +5112,15 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.73</v>
+        <v>3.54</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -5128,15 +5128,15 @@
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.45</v>
+        <v>2.59</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>18/09/2023 18:12</t>
+          <t>17/09/2023 17:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.83</v>
+        <v>2.48</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-viborg/0fi0ouXm/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-fc-copenhagen/nmBPisfK/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,22 +5181,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.74</v>
+        <v>1.98</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.89</v>
+        <v>1.95</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,15 +5204,15 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.54</v>
+        <v>3.73</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.52</v>
+        <v>3.84</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5220,15 +5220,15 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.59</v>
+        <v>3.45</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>17/09/2023 17:12</t>
+          <t>18/09/2023 18:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.48</v>
+        <v>3.83</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-fc-copenhagen/nmBPisfK/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-viborg/0fi0ouXm/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Odense</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>02/10/2023 05:12</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.86</v>
+        <v>1.32</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>08/10/2023 13:52</t>
+          <t>08/10/2023 13:50</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.82</v>
+        <v>4.97</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>02/10/2023 05:12</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.66</v>
+        <v>5.91</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>08/10/2023 13:52</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.14</v>
+        <v>6.2</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>02/10/2023 05:12</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.44</v>
+        <v>8.98</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>08/10/2023 13:52</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-hvidovre-if/MT7feG0C/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-odense/rw9jddo6/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>02/10/2023 05:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.32</v>
+        <v>1.86</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 13:50</t>
+          <t>08/10/2023 13:52</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.97</v>
+        <v>3.82</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>02/10/2023 05:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>5.91</v>
+        <v>3.66</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:52</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.2</v>
+        <v>4.14</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>02/10/2023 05:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>8.98</v>
+        <v>4.44</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:52</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-odense/rw9jddo6/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-hvidovre-if/MT7feG0C/</t>
         </is>
       </c>
     </row>
@@ -8274,6 +8274,98 @@
       <c r="V85" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/brondby-aarhus/IT01An6G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45240.79166666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Randers FC</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-randers-fc/CjMzPoL9/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8369,6 +8369,190 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45242.5</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Brondby</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/fc-copenhagen-brondby/2Lvp2ODd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-lyngby/fFRVPR53/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.69</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>08/08/2023 14:42</t>
+          <t>06/08/2023 18:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.18</v>
+        <v>3.79</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>13/08/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>06/08/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>13/08/2023 13:59</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>13/08/2023 13:59</t>
-        </is>
-      </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>08/08/2023 14:42</t>
+          <t>06/08/2023 18:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 13:59</t>
+          <t>13/08/2023 13:58</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-midtjylland/nysURgzb/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-nordsjaelland/pMaXQDk4/</t>
         </is>
       </c>
     </row>
@@ -2413,46 +2413,46 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.69</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.79</v>
+        <v>3.18</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 13:55</t>
+          <t>13/08/2023 13:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.82</v>
+        <v>3.57</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.86</v>
+        <v>3.46</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,24 +2460,24 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 13:58</t>
+          <t>13/08/2023 13:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-nordsjaelland/pMaXQDk4/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-midtjylland/nysURgzb/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Vejle</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
       <c r="J81" t="n">
-        <v>1.33</v>
+        <v>2.45</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>30/10/2023 07:12</t>
+          <t>29/10/2023 16:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.3</v>
+        <v>2.57</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>05/11/2023 13:36</t>
+          <t>05/11/2023 13:32</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>5.51</v>
+        <v>3.45</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>30/10/2023 07:12</t>
+          <t>29/10/2023 16:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>5.81</v>
+        <v>3.55</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:09</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>8.880000000000001</v>
+        <v>2.91</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>30/10/2023 07:12</t>
+          <t>29/10/2023 16:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>10.37</v>
+        <v>2.76</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:32</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-vejle/Sv8lDlMc/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/viborg-silkeborg/4pa98QzT/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.45</v>
+        <v>1.33</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>29/10/2023 16:12</t>
+          <t>30/10/2023 07:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.57</v>
+        <v>1.3</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>05/11/2023 13:32</t>
+          <t>05/11/2023 13:36</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.45</v>
+        <v>5.51</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>29/10/2023 16:12</t>
+          <t>30/10/2023 07:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.55</v>
+        <v>5.81</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>05/11/2023 13:09</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.91</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>29/10/2023 16:12</t>
+          <t>30/10/2023 07:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.76</v>
+        <v>10.37</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>05/11/2023 13:32</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/viborg-silkeborg/4pa98QzT/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-vejle/Sv8lDlMc/</t>
         </is>
       </c>
     </row>
@@ -8550,6 +8550,282 @@
       <c r="V88" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/vejle-lyngby/fFRVPR53/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/midtjylland-nordsjaelland/lIzt34bj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45242.75</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Odense</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Hvidovre IF</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:52</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/odense-hvidovre-if/GOSRQ7jc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45242.83333333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Aarhus</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:58</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/aarhus-viborg/6goy4pqp/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.45</v>
+        <v>1.33</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>29/10/2023 16:12</t>
+          <t>30/10/2023 07:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.57</v>
+        <v>1.3</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>05/11/2023 13:32</t>
+          <t>05/11/2023 13:36</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.45</v>
+        <v>5.51</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>29/10/2023 16:12</t>
+          <t>30/10/2023 07:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.55</v>
+        <v>5.81</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>05/11/2023 13:09</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.91</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>29/10/2023 16:12</t>
+          <t>30/10/2023 07:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.76</v>
+        <v>10.37</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>05/11/2023 13:32</t>
+          <t>05/11/2023 13:55</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/viborg-silkeborg/4pa98QzT/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-vejle/Sv8lDlMc/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
         <v>1</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Vejle</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
       <c r="J82" t="n">
-        <v>1.33</v>
+        <v>2.45</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>30/10/2023 07:12</t>
+          <t>29/10/2023 16:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.3</v>
+        <v>2.57</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>05/11/2023 13:36</t>
+          <t>05/11/2023 13:32</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>5.51</v>
+        <v>3.45</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>30/10/2023 07:12</t>
+          <t>29/10/2023 16:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>5.81</v>
+        <v>3.55</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:09</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>8.880000000000001</v>
+        <v>2.91</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>30/10/2023 07:12</t>
+          <t>29/10/2023 16:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>10.37</v>
+        <v>2.76</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>05/11/2023 13:55</t>
+          <t>05/11/2023 13:32</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-vejle/Sv8lDlMc/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/viborg-silkeborg/4pa98QzT/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,98 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/aarhus-viborg/6goy4pqp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45254.79166666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Hvidovre IF</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:41</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:41</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:41</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/hvidovre-if-vejle/jsLvO5zG/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8921,6 +8921,374 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45255.79166666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:41</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:41</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:41</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/viborg-fc-copenhagen/2L0FH3Dq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Aarhus</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-aarhus/p4KrNPkM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45256.66666666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Randers FC</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Odense</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-odense/Ao4NFsrd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45256.75</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Brondby</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:50</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:50</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>26/11/2023 17:50</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/lyngby-brondby/dvOnMq5S/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9289,6 +9289,98 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45257.79166666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>13/11/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>27/11/2023 17:54</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-midtjylland/tCaJGNSk/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>02/10/2023 05:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.32</v>
+        <v>1.86</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>08/10/2023 13:50</t>
+          <t>08/10/2023 13:52</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.97</v>
+        <v>3.82</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>02/10/2023 05:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>5.91</v>
+        <v>3.66</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:52</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.2</v>
+        <v>4.14</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>02/10/2023 18:12</t>
+          <t>02/10/2023 05:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>8.98</v>
+        <v>4.44</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>08/10/2023 13:59</t>
+          <t>08/10/2023 13:52</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-odense/rw9jddo6/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-hvidovre-if/MT7feG0C/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Odense</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>02/10/2023 05:12</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.86</v>
+        <v>1.32</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>08/10/2023 13:52</t>
+          <t>08/10/2023 13:50</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.82</v>
+        <v>4.97</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>02/10/2023 05:12</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.66</v>
+        <v>5.91</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>08/10/2023 13:52</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.14</v>
+        <v>6.2</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>02/10/2023 05:12</t>
+          <t>02/10/2023 18:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.44</v>
+        <v>8.98</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>08/10/2023 13:52</t>
+          <t>08/10/2023 13:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-hvidovre-if/MT7feG0C/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/nordsjaelland-odense/rw9jddo6/</t>
         </is>
       </c>
     </row>
@@ -9378,6 +9378,98 @@
       <c r="V97" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/silkeborg-midtjylland/tCaJGNSk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45261.79166666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Randers FC</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-vejle/0zXFLXVE/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_superliga_2023-2024.xlsx
+++ b/2023/denmark_superliga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,46 +2321,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nordsjaelland</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.69</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.79</v>
+        <v>3.18</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 13:55</t>
+          <t>13/08/2023 13:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.82</v>
+        <v>3.57</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.86</v>
+        <v>3.46</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,24 +2368,24 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>06/08/2023 18:12</t>
+          <t>08/08/2023 14:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 13:58</t>
+          <t>13/08/2023 13:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-nordsjaelland/pMaXQDk4/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-midtjylland/nysURgzb/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Nordsjaelland</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.69</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>08/08/2023 14:42</t>
+          <t>06/08/2023 18:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.18</v>
+        <v>3.79</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>13/08/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>06/08/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>13/08/2023 13:59</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>13/08/2023 13:59</t>
-        </is>
-      </c>
       <c r="R22" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>08/08/2023 14:42</t>
+          <t>06/08/2023 18:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 13:59</t>
+          <t>13/08/2023 13:58</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/superliga/vejle-midtjylland/nysURgzb/</t>
+          <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-nordsjaelland/pMaXQDk4/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,466 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/superliga/randers-fc-vejle/0zXFLXVE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Lyngby</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/lyngby-silkeborg/6DXBMDG8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Odense</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>27/11/2023 09:49</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>27/11/2023 09:49</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>27/11/2023 09:49</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/odense-nordsjaelland/6m2GJB0R/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45263.66666666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Brondby</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>4</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Hvidovre IF</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/brondby-hvidovre-if/lx3RE1c2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45263.75</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>FC Copenhagen</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Aarhus</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/fc-copenhagen-aarhus/vRVJKioL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>superliga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45264.79166666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>27/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/superliga/midtjylland-viborg/hAT7Ng12/</t>
         </is>
       </c>
     </row>
